--- a/data/trans_orig/P6716-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4854</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1799</v>
+        <v>1550</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10988</v>
+        <v>10733</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01804757985829611</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006691087049552125</v>
+        <v>0.005762435680048762</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04085755436846649</v>
+        <v>0.03990888579160938</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -763,19 +763,19 @@
         <v>5953</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2011</v>
+        <v>2833</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12050</v>
+        <v>12002</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03691428406972212</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01246780438562681</v>
+        <v>0.01756841334040211</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07471661000770793</v>
+        <v>0.07441825551220492</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -784,19 +784,19 @@
         <v>10807</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5918</v>
+        <v>5779</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19828</v>
+        <v>18062</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02512020870059374</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01375559613502247</v>
+        <v>0.01343383163446191</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0460895404065263</v>
+        <v>0.04198341219904031</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>7118</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2857</v>
+        <v>2842</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14503</v>
+        <v>14327</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02646652031825361</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01062433550185779</v>
+        <v>0.01056809078549171</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05392580920747017</v>
+        <v>0.05327316332619061</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -834,19 +834,19 @@
         <v>4989</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1822</v>
+        <v>1144</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11796</v>
+        <v>12376</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03093717327070441</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01129547311493951</v>
+        <v>0.007092410849828353</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07314478312666491</v>
+        <v>0.07673653410505055</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -855,19 +855,19 @@
         <v>12107</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6215</v>
+        <v>6691</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23045</v>
+        <v>21735</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0281424499698277</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01444697546807597</v>
+        <v>0.01555365097045581</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05356545750294687</v>
+        <v>0.05052130409311002</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>39381</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28631</v>
+        <v>28741</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51471</v>
+        <v>51545</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1464328269351435</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.106461674521829</v>
+        <v>0.1068699853327185</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1913860259938431</v>
+        <v>0.1916607526049826</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -905,19 +905,19 @@
         <v>25830</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17446</v>
+        <v>17436</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35186</v>
+        <v>37058</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1601583690386116</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1081762640215216</v>
+        <v>0.1081147959006403</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2181735625629539</v>
+        <v>0.2297814576552561</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>64</v>
@@ -926,19 +926,19 @@
         <v>65211</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52174</v>
+        <v>51654</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>81992</v>
+        <v>80486</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1515781699621661</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1212758910519571</v>
+        <v>0.1200659107345225</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1905848606485771</v>
+        <v>0.1870850035578979</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>73504</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58765</v>
+        <v>58420</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87869</v>
+        <v>88866</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2733114370144379</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2185077058233673</v>
+        <v>0.2172245707313016</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3267255140237896</v>
+        <v>0.330435567241167</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -976,19 +976,19 @@
         <v>37801</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27566</v>
+        <v>26626</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50332</v>
+        <v>49674</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2343897288541174</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1709273841827438</v>
+        <v>0.1650980445761642</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3120911131741244</v>
+        <v>0.308006321288326</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>108</v>
@@ -997,19 +997,19 @@
         <v>111305</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92476</v>
+        <v>93678</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131223</v>
+        <v>131700</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2587207171599622</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2149555420046017</v>
+        <v>0.2177479214141187</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3050203260573605</v>
+        <v>0.3061273440361341</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>144081</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>127819</v>
+        <v>127861</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>160877</v>
+        <v>161071</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5357416358738689</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4752741190548142</v>
+        <v>0.4754315994488771</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5981964839734661</v>
+        <v>0.5989172770782635</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>79</v>
@@ -1047,19 +1047,19 @@
         <v>86702</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72871</v>
+        <v>72950</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>99128</v>
+        <v>99726</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5376004447668444</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4518451535491281</v>
+        <v>0.452332035914098</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6146549745748268</v>
+        <v>0.6183617559094633</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>216</v>
@@ -1068,19 +1068,19 @@
         <v>230782</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>209752</v>
+        <v>209716</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>254015</v>
+        <v>251193</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5364384542074503</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4875560529565678</v>
+        <v>0.4874708388736974</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5904411191816309</v>
+        <v>0.583882774506697</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>12109</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6078</v>
+        <v>6107</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22736</v>
+        <v>22778</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02948476357117675</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01479845190906532</v>
+        <v>0.01486914251640086</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05536027256096814</v>
+        <v>0.05546253616976233</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1193,19 +1193,19 @@
         <v>7345</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3131</v>
+        <v>3148</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14688</v>
+        <v>13892</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02727929178665361</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01162807168099062</v>
+        <v>0.01169208290105593</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05455412986480881</v>
+        <v>0.05159743804841905</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1214,19 +1214,19 @@
         <v>19454</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12074</v>
+        <v>11944</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31402</v>
+        <v>30197</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02861144895222545</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01775771662603604</v>
+        <v>0.01756676519781906</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04618402061087199</v>
+        <v>0.04441213870369616</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>15299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8815</v>
+        <v>8641</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26261</v>
+        <v>25702</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03725305121075968</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0214640048988472</v>
+        <v>0.02104010963443864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06394405020407738</v>
+        <v>0.06258286697831142</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -1264,19 +1264,19 @@
         <v>12193</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6476</v>
+        <v>6450</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20189</v>
+        <v>20826</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04528852730396333</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02405199367957281</v>
+        <v>0.02395754544478506</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0749881758434411</v>
+        <v>0.07735283189207495</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -1285,19 +1285,19 @@
         <v>27493</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18922</v>
+        <v>17859</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>40801</v>
+        <v>40091</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04043490952863688</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02782970099976718</v>
+        <v>0.02626577164154413</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06000783207536445</v>
+        <v>0.05896382122358688</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>72121</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>56331</v>
+        <v>57750</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>88947</v>
+        <v>88862</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1756088862594911</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1371611385225773</v>
+        <v>0.1406171446236722</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2165788201093311</v>
+        <v>0.2163710250493373</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -1335,19 +1335,19 @@
         <v>54184</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>41114</v>
+        <v>41948</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68391</v>
+        <v>68700</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2012510373167359</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1527086484370015</v>
+        <v>0.1558041848411872</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2540223757386808</v>
+        <v>0.2551684924564519</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>117</v>
@@ -1356,19 +1356,19 @@
         <v>126305</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>104889</v>
+        <v>106371</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>147637</v>
+        <v>148290</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1857625710795811</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1542655323440783</v>
+        <v>0.1564449350202521</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2171376577292712</v>
+        <v>0.2180975043324025</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>100311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81841</v>
+        <v>81902</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>118727</v>
+        <v>118396</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2442492025110627</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1992758932354884</v>
+        <v>0.1994243909591707</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2890905962096194</v>
+        <v>0.2882849132317236</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -1406,19 +1406,19 @@
         <v>58977</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45322</v>
+        <v>45738</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74878</v>
+        <v>72984</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2190544205803033</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1683366013913663</v>
+        <v>0.1698814268781062</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2781146611830522</v>
+        <v>0.271080458514178</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>145</v>
@@ -1427,19 +1427,19 @@
         <v>159288</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>138498</v>
+        <v>136472</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>184359</v>
+        <v>184353</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2342726652749812</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2036958665055758</v>
+        <v>0.2007158315645965</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2711463759254063</v>
+        <v>0.2711366292600302</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>210850</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>189515</v>
+        <v>190853</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>233325</v>
+        <v>233523</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5134040964475097</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4614535331673296</v>
+        <v>0.4647119364037482</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5681283394114015</v>
+        <v>0.5686089612170527</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>122</v>
@@ -1477,19 +1477,19 @@
         <v>136536</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>118751</v>
+        <v>120106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>153026</v>
+        <v>153942</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5071267230123438</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4410715304829621</v>
+        <v>0.4461041704478684</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5683749853661932</v>
+        <v>0.5717790736316604</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>318</v>
@@ -1498,19 +1498,19 @@
         <v>347386</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>320118</v>
+        <v>319944</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>373650</v>
+        <v>374989</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5109184051645753</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.470813022305632</v>
+        <v>0.4705578683330301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5495460314126595</v>
+        <v>0.5515156889377475</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>10186</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4957</v>
+        <v>4965</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19530</v>
+        <v>18663</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03178817972426733</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01547122200062966</v>
+        <v>0.01549429494787683</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06095023638061364</v>
+        <v>0.05824519036822177</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1623,19 +1623,19 @@
         <v>5473</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2109</v>
+        <v>2143</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12751</v>
+        <v>12941</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02553358646073987</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009840461994573007</v>
+        <v>0.009998948785750042</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05948923273907841</v>
+        <v>0.06037603537636813</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1644,19 +1644,19 @@
         <v>15658</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8685</v>
+        <v>9371</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26245</v>
+        <v>27279</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02928122851949387</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01624174814230748</v>
+        <v>0.01752314714944206</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04907718823441159</v>
+        <v>0.05101192894561396</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>15046</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8181</v>
+        <v>8530</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24536</v>
+        <v>25848</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04695777149482323</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02553183692352674</v>
+        <v>0.02662052547285895</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0765733594836126</v>
+        <v>0.08066973602943864</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1694,19 +1694,19 @@
         <v>12543</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6248</v>
+        <v>6307</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23130</v>
+        <v>21717</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05852061098194724</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02914868142208151</v>
+        <v>0.02942663273695124</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.107910349491337</v>
+        <v>0.1013191842127776</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1715,19 +1715,19 @@
         <v>27590</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17900</v>
+        <v>18229</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>40555</v>
+        <v>40323</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0515923613332837</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03347256844049473</v>
+        <v>0.03408897164850396</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07583673125435975</v>
+        <v>0.0754042463732985</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>59106</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44582</v>
+        <v>44659</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>75067</v>
+        <v>75741</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1844649658209279</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1391362935831572</v>
+        <v>0.1393760867720867</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2342769678373577</v>
+        <v>0.2363823985062676</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>43</v>
@@ -1765,19 +1765,19 @@
         <v>48186</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36355</v>
+        <v>36179</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>62358</v>
+        <v>63403</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2248074818622906</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1696100551295611</v>
+        <v>0.1687912021549723</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2909286318484913</v>
+        <v>0.2958007201265058</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>96</v>
@@ -1786,19 +1786,19 @@
         <v>107292</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>87671</v>
+        <v>88841</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>126501</v>
+        <v>126187</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2006349572068182</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1639448412703383</v>
+        <v>0.1661326184990215</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2365560071673836</v>
+        <v>0.235969409967646</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>62420</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48460</v>
+        <v>48794</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79043</v>
+        <v>79403</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1948085698712592</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1512382578788494</v>
+        <v>0.1522821462668908</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2466878064449685</v>
+        <v>0.2478111103072827</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -1836,19 +1836,19 @@
         <v>51230</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38355</v>
+        <v>38908</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64092</v>
+        <v>65394</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2390094231565044</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1789412398371529</v>
+        <v>0.1815231816736152</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2990177000103573</v>
+        <v>0.3050897021701404</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>107</v>
@@ -1857,19 +1857,19 @@
         <v>113650</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>95328</v>
+        <v>96222</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>134785</v>
+        <v>134479</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2125250508200086</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.178263059544562</v>
+        <v>0.1799341882805556</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2520480736228355</v>
+        <v>0.2514743903021084</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>173661</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>156199</v>
+        <v>154258</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194343</v>
+        <v>193507</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5419805130887224</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4874844221870515</v>
+        <v>0.4814258881180856</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6065279576664852</v>
+        <v>0.6039180751880626</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>86</v>
@@ -1907,19 +1907,19 @@
         <v>96910</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>82705</v>
+        <v>81598</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111929</v>
+        <v>113946</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4521288975385178</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3858571357385521</v>
+        <v>0.3806918102529451</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5221960003131516</v>
+        <v>0.5316066430315588</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>241</v>
@@ -1928,19 +1928,19 @@
         <v>270571</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>245431</v>
+        <v>245769</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>294795</v>
+        <v>292533</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5059664021203957</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4589541721896361</v>
+        <v>0.45958607542913</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5512653854274135</v>
+        <v>0.5470341372474085</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>12055</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6499</v>
+        <v>6579</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19269</v>
+        <v>20509</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02893070960347415</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01559776419367866</v>
+        <v>0.01578919355635781</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04624436154009751</v>
+        <v>0.04921866057021861</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2053,19 +2053,19 @@
         <v>9727</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4948</v>
+        <v>4797</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18019</v>
+        <v>16860</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03256724429465276</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01656872651765253</v>
+        <v>0.01606245267919601</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06033063143650159</v>
+        <v>0.05645262753241358</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -2074,19 +2074,19 @@
         <v>21782</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14113</v>
+        <v>14135</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32631</v>
+        <v>31141</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0304489871367972</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0197289605340359</v>
+        <v>0.0197588272261376</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04561513995861894</v>
+        <v>0.04353210202511942</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>21821</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13138</v>
+        <v>14131</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32865</v>
+        <v>33604</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05236781765809656</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03152870093002574</v>
+        <v>0.03391261348724942</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07887201975758588</v>
+        <v>0.08064638888714054</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2124,19 +2124,19 @@
         <v>12940</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6793</v>
+        <v>6880</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20971</v>
+        <v>21764</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04332723115489473</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02274527898994573</v>
+        <v>0.02303429089540209</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0702158208710657</v>
+        <v>0.07287163820971977</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -2145,19 +2145,19 @@
         <v>34761</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>24512</v>
+        <v>24087</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>47634</v>
+        <v>49027</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04859331238273887</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03426491325366614</v>
+        <v>0.0336713350631092</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06658860378990271</v>
+        <v>0.06853493170879622</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>85247</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>69157</v>
+        <v>69016</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>101366</v>
+        <v>102749</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2045820611712575</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1659674936031747</v>
+        <v>0.1656301084090006</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2432663031088554</v>
+        <v>0.2465857692984033</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>69</v>
@@ -2195,19 +2195,19 @@
         <v>75114</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>60864</v>
+        <v>60365</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>92291</v>
+        <v>91727</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2515002590827347</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2037881264355767</v>
+        <v>0.2021155857176308</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3090124551607716</v>
+        <v>0.3071247684290447</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>152</v>
@@ -2216,19 +2216,19 @@
         <v>160361</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>138541</v>
+        <v>139805</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>182154</v>
+        <v>185237</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2241707223122606</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1936677936071908</v>
+        <v>0.1954355998599462</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2546350052210206</v>
+        <v>0.2589455034758124</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>115227</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>96494</v>
+        <v>97028</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>133863</v>
+        <v>133699</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2765311816547552</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2315738893608802</v>
+        <v>0.2328550372835978</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3212544120048474</v>
+        <v>0.3208618262059989</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -2266,19 +2266,19 @@
         <v>75936</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>61364</v>
+        <v>61683</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>91638</v>
+        <v>92036</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2542503379241991</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2054625300977858</v>
+        <v>0.2065294055929376</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3068253500742154</v>
+        <v>0.3081587067303115</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>187</v>
@@ -2287,19 +2287,19 @@
         <v>191163</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>169682</v>
+        <v>168896</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>215059</v>
+        <v>217461</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2672287805140084</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.237201019966647</v>
+        <v>0.236101048153278</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3006328311224687</v>
+        <v>0.303990506554542</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>182338</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>160849</v>
+        <v>163144</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>205026</v>
+        <v>204176</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4375882299124165</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3860178635526775</v>
+        <v>0.3915244826871002</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4920370784694967</v>
+        <v>0.4899978343390077</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>119</v>
@@ -2337,19 +2337,19 @@
         <v>124948</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>107227</v>
+        <v>109255</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>140738</v>
+        <v>142301</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4183549275435187</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3590213278811872</v>
+        <v>0.3658128515809826</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.47122524008389</v>
+        <v>0.4764562239384799</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>293</v>
@@ -2358,19 +2358,19 @@
         <v>307286</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>280995</v>
+        <v>280942</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>333641</v>
+        <v>333459</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4295581976541948</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3928055989191416</v>
+        <v>0.392732258989765</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.466400991450504</v>
+        <v>0.4661456128655532</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>39203</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28850</v>
+        <v>28427</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54407</v>
+        <v>53943</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02767165729702493</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02036346927999544</v>
+        <v>0.02006494212737489</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03840308855532975</v>
+        <v>0.03807542345946634</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>28</v>
@@ -2483,19 +2483,19 @@
         <v>28497</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19151</v>
+        <v>19485</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>39871</v>
+        <v>40269</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03020349675017532</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0202970015322309</v>
+        <v>0.02065157956526531</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04225756524253174</v>
+        <v>0.04267995493216708</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>65</v>
@@ -2504,19 +2504,19 @@
         <v>67701</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>51869</v>
+        <v>52900</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>85335</v>
+        <v>85911</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02868376576212881</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02197621902133902</v>
+        <v>0.0224130580573728</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03615526080065661</v>
+        <v>0.03639905512667563</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>59285</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>46103</v>
+        <v>44864</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>76193</v>
+        <v>78280</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04184588300401335</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03254190968874103</v>
+        <v>0.03166719563282338</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05378083131853543</v>
+        <v>0.05525389568840638</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>37</v>
@@ -2554,19 +2554,19 @@
         <v>42666</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>30282</v>
+        <v>30360</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>58380</v>
+        <v>57085</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04522058647839138</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03209482193666994</v>
+        <v>0.03217768810501714</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06187500236458481</v>
+        <v>0.06050262806215188</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>92</v>
@@ -2575,19 +2575,19 @@
         <v>101951</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>84766</v>
+        <v>82120</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>125726</v>
+        <v>123891</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04319492824042573</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03591412474641184</v>
+        <v>0.03479305692393864</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05326788134479345</v>
+        <v>0.05249052436762647</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>255855</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>226415</v>
+        <v>226093</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>286206</v>
+        <v>287095</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1805949396996446</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1598142945134</v>
+        <v>0.1595874978997208</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2020175653714767</v>
+        <v>0.2026454154032067</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>186</v>
@@ -2625,19 +2625,19 @@
         <v>203313</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>179331</v>
+        <v>179763</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>229653</v>
+        <v>230663</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2154845715338957</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1900662286330884</v>
+        <v>0.1905242480890923</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2434015192815793</v>
+        <v>0.2444722040954709</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>429</v>
@@ -2646,19 +2646,19 @@
         <v>459168</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>418732</v>
+        <v>417502</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>500825</v>
+        <v>496345</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.19454214779764</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1774098852315882</v>
+        <v>0.1768889730857374</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2121916032969556</v>
+        <v>0.2102933660538026</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>351462</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>319208</v>
+        <v>318722</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>388801</v>
+        <v>383239</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.248078931371991</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2253126051628957</v>
+        <v>0.2249689984779665</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2744343992573964</v>
+        <v>0.2705085926181813</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>214</v>
@@ -2696,19 +2696,19 @@
         <v>223944</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>199560</v>
+        <v>199506</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>252119</v>
+        <v>254353</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2373500025417078</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2115070967104602</v>
+        <v>0.2114495114789998</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2672122753055285</v>
+        <v>0.2695798261889052</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>547</v>
@@ -2717,19 +2717,19 @@
         <v>575406</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>534753</v>
+        <v>533225</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>620965</v>
+        <v>618464</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2437900181562992</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.226566367585119</v>
+        <v>0.2259189078674985</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2630926104695519</v>
+        <v>0.2620332799428965</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>710930</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>672367</v>
+        <v>673960</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>751661</v>
+        <v>748666</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5018085886273261</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4745888966603273</v>
+        <v>0.4757132411060436</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5305583716135522</v>
+        <v>0.5284441048662489</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>406</v>
@@ -2767,19 +2767,19 @@
         <v>445096</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>414706</v>
+        <v>413463</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>478670</v>
+        <v>477251</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4717413426958298</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4395324930355071</v>
+        <v>0.4382149153476854</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5073253650584471</v>
+        <v>0.505821659741241</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1068</v>
@@ -2788,19 +2788,19 @@
         <v>1156025</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1102301</v>
+        <v>1105909</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1207494</v>
+        <v>1205124</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4897891400435063</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4670271461821746</v>
+        <v>0.4685555267434737</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.511595724813645</v>
+        <v>0.5105913484869687</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>8829</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4274</v>
+        <v>4339</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17595</v>
+        <v>16909</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0365847651962469</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01771205132491059</v>
+        <v>0.01798049731647708</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07290952717145527</v>
+        <v>0.07006746569340436</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -3153,19 +3153,19 @@
         <v>10135</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4753</v>
+        <v>5058</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17530</v>
+        <v>17713</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0617134371007626</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02893956321469464</v>
+        <v>0.03079884262734426</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1067367540654773</v>
+        <v>0.10785343062026</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -3174,19 +3174,19 @@
         <v>18964</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11798</v>
+        <v>11354</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29688</v>
+        <v>29379</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04676084609380005</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02909118241723482</v>
+        <v>0.02799740263488574</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07320308952898519</v>
+        <v>0.07244082241999054</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>17501</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10722</v>
+        <v>10482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27440</v>
+        <v>26266</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07251975035163405</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04443079929717136</v>
+        <v>0.04343598960127226</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1137085519643458</v>
+        <v>0.1088446078605866</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -3224,19 +3224,19 @@
         <v>12462</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7016</v>
+        <v>7048</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20468</v>
+        <v>20474</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07587823904798216</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04271801903608732</v>
+        <v>0.04291788335676276</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1246282062148936</v>
+        <v>0.1246650325337517</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -3245,19 +3245,19 @@
         <v>29962</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20270</v>
+        <v>21060</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42261</v>
+        <v>42068</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07387980044888628</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04998187163036515</v>
+        <v>0.0519293830596135</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1042066702612796</v>
+        <v>0.1037301563092586</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>46646</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34418</v>
+        <v>35183</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>59708</v>
+        <v>59592</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1932957446819058</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1426236429900479</v>
+        <v>0.1457927747896596</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2474229530387129</v>
+        <v>0.2469394717325727</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -3295,19 +3295,19 @@
         <v>35377</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26298</v>
+        <v>25650</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47835</v>
+        <v>46287</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2154086108365632</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1601288647765944</v>
+        <v>0.1561844769222908</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2912653109644666</v>
+        <v>0.2818395919196024</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>81</v>
@@ -3316,19 +3316,19 @@
         <v>82023</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>66394</v>
+        <v>67027</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>98336</v>
+        <v>98423</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2022505480126032</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1637134280072962</v>
+        <v>0.1652722998039112</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2424731886701079</v>
+        <v>0.2426888791534325</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>74793</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60738</v>
+        <v>61334</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90657</v>
+        <v>88623</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3099325067687576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2516901263663664</v>
+        <v>0.2541589335445125</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3756690092075946</v>
+        <v>0.3672404683781895</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -3366,19 +3366,19 @@
         <v>51031</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40843</v>
+        <v>39645</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62613</v>
+        <v>63389</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3107237713052559</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2486889263104317</v>
+        <v>0.2413948727322861</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3812453070721244</v>
+        <v>0.3859716029120709</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>126</v>
@@ -3387,19 +3387,19 @@
         <v>125824</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>106886</v>
+        <v>108406</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>145274</v>
+        <v>146048</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3102529364343351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2635573404773073</v>
+        <v>0.267304242892681</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3582110833538319</v>
+        <v>0.3601216042988848</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>93552</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>77894</v>
+        <v>80498</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>109427</v>
+        <v>111176</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3876672330014557</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3227807371274343</v>
+        <v>0.3335720720012472</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4534507723133858</v>
+        <v>0.4606967996827988</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -3437,19 +3437,19 @@
         <v>55227</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44623</v>
+        <v>43719</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>69136</v>
+        <v>69231</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3362759417094362</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2717042726587796</v>
+        <v>0.2662047804280798</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4209630704084775</v>
+        <v>0.4215414395861442</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>145</v>
@@ -3458,19 +3458,19 @@
         <v>148779</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>129357</v>
+        <v>129362</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>168263</v>
+        <v>167912</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3668558690103754</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3189651624306074</v>
+        <v>0.3189772346836547</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4148970800222128</v>
+        <v>0.4140317319004557</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>14169</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7534</v>
+        <v>7568</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24998</v>
+        <v>25089</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03428677680285</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01823206524800875</v>
+        <v>0.01831297125114734</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0604913120482516</v>
+        <v>0.06071296456244349</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3583,19 +3583,19 @@
         <v>7291</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3156</v>
+        <v>3150</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14498</v>
+        <v>14808</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02673166709536235</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01157066035564467</v>
+        <v>0.01154730394367949</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05315448581369055</v>
+        <v>0.05429262928866031</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -3604,19 +3604,19 @@
         <v>21460</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13117</v>
+        <v>13750</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33137</v>
+        <v>33425</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03128287924161926</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01912085411894466</v>
+        <v>0.02004417517806705</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04830471509169872</v>
+        <v>0.04872528692951981</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>21663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13355</v>
+        <v>14078</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33369</v>
+        <v>34096</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05242114704193641</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03231789489130319</v>
+        <v>0.03406740612017076</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08074885704511427</v>
+        <v>0.08250785799477628</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -3654,19 +3654,19 @@
         <v>14376</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8399</v>
+        <v>7846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23122</v>
+        <v>23850</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0527076857489666</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03079257671392956</v>
+        <v>0.02876476481579777</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08477198260449043</v>
+        <v>0.08744404253693901</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -3675,19 +3675,19 @@
         <v>36039</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25869</v>
+        <v>26057</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49560</v>
+        <v>50806</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05253507429866349</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03770963653986601</v>
+        <v>0.03798383532288192</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07224581714310686</v>
+        <v>0.07406156464170499</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>77618</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>61540</v>
+        <v>61882</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>94905</v>
+        <v>94482</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1878262833103279</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1489196162113637</v>
+        <v>0.1497457284606005</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2296584671166402</v>
+        <v>0.2286344270795996</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>51</v>
@@ -3725,19 +3725,19 @@
         <v>51999</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40120</v>
+        <v>39404</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>65268</v>
+        <v>65162</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1906482322510969</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1470922502001051</v>
+        <v>0.144468447634515</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2392937678887055</v>
+        <v>0.2389056271543426</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>120</v>
@@ -3746,19 +3746,19 @@
         <v>129618</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>108121</v>
+        <v>108558</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>151791</v>
+        <v>151367</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1889482849581256</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1576115314065841</v>
+        <v>0.1582490459735238</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2212709151422125</v>
+        <v>0.2206521091108854</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>123744</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104935</v>
+        <v>104959</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>142715</v>
+        <v>141977</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2994430111604438</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2539289819857628</v>
+        <v>0.2539875159582611</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3453513195858927</v>
+        <v>0.3435646432707954</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -3796,19 +3796,19 @@
         <v>81171</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65647</v>
+        <v>67953</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97000</v>
+        <v>97810</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2976007631065408</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2406839101053744</v>
+        <v>0.2491402951425676</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.355637329088713</v>
+        <v>0.3586056047836425</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>195</v>
@@ -3817,19 +3817,19 @@
         <v>204915</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>180284</v>
+        <v>181544</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>228926</v>
+        <v>227843</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2987105367622472</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2628060994353789</v>
+        <v>0.2646428224663074</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3337131689686345</v>
+        <v>0.332134132305695</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>176052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>155761</v>
+        <v>155378</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>196668</v>
+        <v>197632</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.426022781684442</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3769213648498869</v>
+        <v>0.3759942491730764</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4759102728324039</v>
+        <v>0.4782424465200797</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>114</v>
@@ -3867,19 +3867,19 @@
         <v>117913</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>102355</v>
+        <v>101558</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>135314</v>
+        <v>134583</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4323116517980333</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.37527000935048</v>
+        <v>0.3723485571479342</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4961074170535285</v>
+        <v>0.4934290109494837</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>271</v>
@@ -3888,19 +3888,19 @@
         <v>293966</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>265548</v>
+        <v>267699</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>318976</v>
+        <v>321043</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4285232247393445</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3870975187273404</v>
+        <v>0.3902327667680964</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4649818231254258</v>
+        <v>0.4679952144280247</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>14795</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8320</v>
+        <v>8022</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25259</v>
+        <v>24567</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04078307799285255</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02293594506479339</v>
+        <v>0.02211271259493165</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06962748042237557</v>
+        <v>0.06772022938305813</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -4013,19 +4013,19 @@
         <v>7607</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3196</v>
+        <v>3099</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15281</v>
+        <v>15015</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02822422247340867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01185764407904326</v>
+        <v>0.01149632321364069</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05669632856807701</v>
+        <v>0.05571071809336001</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -4034,19 +4034,19 @@
         <v>22402</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13901</v>
+        <v>13780</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34330</v>
+        <v>33924</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03542968975225226</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02198567738390012</v>
+        <v>0.02179394951526609</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05429477944178089</v>
+        <v>0.05365184922754822</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>29496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20216</v>
+        <v>20467</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42419</v>
+        <v>44432</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08130682388005984</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05572666215802582</v>
+        <v>0.05641789765148163</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1169297919920327</v>
+        <v>0.1224787368758162</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -4084,19 +4084,19 @@
         <v>21115</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12978</v>
+        <v>13690</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30692</v>
+        <v>31208</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07834087907040775</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04815207172234204</v>
+        <v>0.0507916067256946</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.113874069250447</v>
+        <v>0.1157878676549942</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -4105,19 +4105,19 @@
         <v>50610</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37687</v>
+        <v>36966</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64945</v>
+        <v>64666</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0800425483223326</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05960424012530394</v>
+        <v>0.05846279112473653</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.102713480758771</v>
+        <v>0.1022727591594034</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>122394</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>104318</v>
+        <v>103257</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>141576</v>
+        <v>142703</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3373880067434369</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2875587670195908</v>
+        <v>0.284635058076242</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3902644242692565</v>
+        <v>0.3933702279481681</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>90</v>
@@ -4155,19 +4155,19 @@
         <v>92511</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>78076</v>
+        <v>76954</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>108365</v>
+        <v>107813</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3432388174140921</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2896812183071738</v>
+        <v>0.2855200104300231</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4020624330932558</v>
+        <v>0.4000135091506642</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>196</v>
@@ -4176,19 +4176,19 @@
         <v>214905</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>192608</v>
+        <v>188747</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>238866</v>
+        <v>239257</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3398819968203011</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3046180672150954</v>
+        <v>0.2985117672221997</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3777771615541978</v>
+        <v>0.3783954941494445</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>87195</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>71690</v>
+        <v>70524</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>104334</v>
+        <v>103685</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2403597208309811</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1976191910604594</v>
+        <v>0.1944054098133567</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2876038835070328</v>
+        <v>0.2858135013426869</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -4226,19 +4226,19 @@
         <v>63166</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49407</v>
+        <v>49145</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76283</v>
+        <v>78080</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2343611159540593</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1833137192975387</v>
+        <v>0.1823406460265327</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2830275923934199</v>
+        <v>0.2896972358867655</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>144</v>
@@ -4247,19 +4247,19 @@
         <v>150361</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>127653</v>
+        <v>129386</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>170969</v>
+        <v>172316</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2378027314016176</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2018888891297842</v>
+        <v>0.2046293562662161</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2703947013386377</v>
+        <v>0.2725243523146417</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>108890</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>90700</v>
+        <v>91317</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>125962</v>
+        <v>129634</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3001623705526696</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2500215919994713</v>
+        <v>0.251721147480455</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3472228639088767</v>
+        <v>0.357346239414818</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>83</v>
@@ -4297,19 +4297,19 @@
         <v>85125</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69822</v>
+        <v>71041</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>101023</v>
+        <v>100159</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3158349650880322</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2590564057363394</v>
+        <v>0.2635785551496028</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3748217212471896</v>
+        <v>0.3716152838173206</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>183</v>
@@ -4318,19 +4318,19 @@
         <v>194015</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>171275</v>
+        <v>170187</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>218395</v>
+        <v>216726</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3068430337034964</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2708780743240736</v>
+        <v>0.2691581620488833</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3454007892082144</v>
+        <v>0.3427610024938474</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>11563</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5814</v>
+        <v>5827</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21347</v>
+        <v>19978</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02897948719204563</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01457221162892814</v>
+        <v>0.01460423306794612</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05350150735080315</v>
+        <v>0.05007079633936334</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -4443,19 +4443,19 @@
         <v>21804</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13575</v>
+        <v>13074</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32555</v>
+        <v>32357</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06699209554254121</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04170876769709884</v>
+        <v>0.04016856770491389</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1000218650142321</v>
+        <v>0.09941452529610782</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -4464,19 +4464,19 @@
         <v>33367</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23540</v>
+        <v>22919</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49248</v>
+        <v>46228</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04605685394152046</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03249267712675621</v>
+        <v>0.03163498993337955</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06797743046771577</v>
+        <v>0.06380849556002074</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>14036</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7991</v>
+        <v>7715</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22869</v>
+        <v>22984</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0351768087607648</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02002708107081261</v>
+        <v>0.01933496363535196</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05731552965003058</v>
+        <v>0.05760335439371058</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -4514,19 +4514,19 @@
         <v>18145</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10630</v>
+        <v>10316</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28775</v>
+        <v>28389</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05574975166324155</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03266096719105552</v>
+        <v>0.03169544491139095</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08840825556728361</v>
+        <v>0.08722311519871311</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -4535,19 +4535,19 @@
         <v>32181</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>22020</v>
+        <v>21473</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>46147</v>
+        <v>46510</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04441931292733353</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03039386251741258</v>
+        <v>0.02963953055674652</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06369685924471423</v>
+        <v>0.06419835585741585</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>69714</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>56603</v>
+        <v>55927</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>88067</v>
+        <v>85798</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.174720949941031</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1418617248955068</v>
+        <v>0.1401686251950438</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.220717497975202</v>
+        <v>0.2150308313614679</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>60</v>
@@ -4585,19 +4585,19 @@
         <v>64745</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>52405</v>
+        <v>51031</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80464</v>
+        <v>81438</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1989245093002075</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1610117814220978</v>
+        <v>0.156789343270023</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2472198246898113</v>
+        <v>0.2502123302270259</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>128</v>
@@ -4606,19 +4606,19 @@
         <v>134459</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>112411</v>
+        <v>113357</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>156996</v>
+        <v>156428</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1855945278867536</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1551619416861795</v>
+        <v>0.1564673794201642</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2167025953013673</v>
+        <v>0.2159188895548719</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>106700</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>89850</v>
+        <v>88760</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>124450</v>
+        <v>124017</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2674189346354568</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.225186590536347</v>
+        <v>0.2224551272484191</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3119039653841305</v>
+        <v>0.3108196300975157</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>73</v>
@@ -4656,19 +4656,19 @@
         <v>75474</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>61366</v>
+        <v>60417</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92738</v>
+        <v>91202</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2318898863411774</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1885444587982769</v>
+        <v>0.1856265646387022</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2849334879248539</v>
+        <v>0.2802120680798553</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>180</v>
@@ -4677,19 +4677,19 @@
         <v>182175</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>156436</v>
+        <v>159452</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>206462</v>
+        <v>204532</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2514573204682116</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2159306903228653</v>
+        <v>0.2200929933005534</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.284981350035981</v>
+        <v>0.2823171560678061</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>196988</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>177259</v>
+        <v>176700</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>216617</v>
+        <v>217207</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4937038194707018</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4442560654921539</v>
+        <v>0.4428560676512982</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5428979354515163</v>
+        <v>0.5443767384373454</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>138</v>
@@ -4727,19 +4727,19 @@
         <v>145306</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>128205</v>
+        <v>127545</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>162829</v>
+        <v>164960</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4464437571528324</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3939035150313133</v>
+        <v>0.3918743768032472</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5002841351075499</v>
+        <v>0.5068305595121763</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>331</v>
@@ -4748,19 +4748,19 @@
         <v>342294</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>312718</v>
+        <v>315721</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>367817</v>
+        <v>369044</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4724719847761807</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4316483971338136</v>
+        <v>0.43579224667535</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5077012963856986</v>
+        <v>0.5093950848519321</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>49355</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>34450</v>
+        <v>35110</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>65320</v>
+        <v>64964</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03484709614230527</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02432315931603934</v>
+        <v>0.02478935708611852</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04611930907962818</v>
+        <v>0.04586761422056599</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>44</v>
@@ -4873,19 +4873,19 @@
         <v>46838</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33632</v>
+        <v>33499</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60145</v>
+        <v>61553</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04538621256217294</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03258958843178725</v>
+        <v>0.03246082091030787</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05828077450834668</v>
+        <v>0.05964547595355688</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>86</v>
@@ -4894,19 +4894,19 @@
         <v>96193</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>76657</v>
+        <v>78342</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>119090</v>
+        <v>117481</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03928940013971158</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03130999850821053</v>
+        <v>0.03199813146186194</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04864164633517756</v>
+        <v>0.04798457075109055</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>82695</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>65917</v>
+        <v>65519</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>103220</v>
+        <v>100919</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05838622062796289</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04654024097189426</v>
+        <v>0.04625970911007535</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07287807588214039</v>
+        <v>0.0712533949471261</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>64</v>
@@ -4944,19 +4944,19 @@
         <v>66098</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>52096</v>
+        <v>51244</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>84397</v>
+        <v>82684</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06404919617681691</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05048132526387975</v>
+        <v>0.04965605034307467</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08178173934134048</v>
+        <v>0.08012187809973255</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>139</v>
@@ -4965,19 +4965,19 @@
         <v>148792</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>127524</v>
+        <v>125586</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>172857</v>
+        <v>176093</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06077320051466997</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05208637690769907</v>
+        <v>0.051294828423279</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07060244630750601</v>
+        <v>0.07192406466489645</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>316373</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>283951</v>
+        <v>285417</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>347489</v>
+        <v>348953</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2233738417667883</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2004827171532604</v>
+        <v>0.2015173831198937</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2453432923153634</v>
+        <v>0.2463769330764009</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>238</v>
@@ -5015,19 +5015,19 @@
         <v>244633</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>216677</v>
+        <v>216618</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>271843</v>
+        <v>272337</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.237051194728068</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2099617519826733</v>
+        <v>0.2099048894501001</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2634181683474447</v>
+        <v>0.2638968254105629</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>525</v>
@@ -5036,19 +5036,19 @@
         <v>561005</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>518297</v>
+        <v>521207</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>605000</v>
+        <v>607788</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2291389322462227</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2116949634022964</v>
+        <v>0.2128836152018871</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2471082838287295</v>
+        <v>0.2482472070264778</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>392432</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>358255</v>
+        <v>357410</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>427469</v>
+        <v>425502</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2770755041493835</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2529446425043662</v>
+        <v>0.2523484251507141</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3018131479657425</v>
+        <v>0.3004243767548687</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>270</v>
@@ -5086,19 +5086,19 @@
         <v>270842</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>243192</v>
+        <v>243588</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>300671</v>
+        <v>298998</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2624484117512182</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2356556187297758</v>
+        <v>0.2360393089462461</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2913529468430154</v>
+        <v>0.2897315736914663</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>645</v>
@@ -5107,19 +5107,19 @@
         <v>663274</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>622526</v>
+        <v>621662</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>710515</v>
+        <v>707897</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.27091009251124</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2542666583644057</v>
+        <v>0.2539137530745083</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2902053885768552</v>
+        <v>0.2891360019911718</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>575482</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>539984</v>
+        <v>537442</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>615243</v>
+        <v>614065</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.40631733731356</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3812540564445125</v>
+        <v>0.3794592901467831</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4343905442659603</v>
+        <v>0.4335585657696478</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>392</v>
@@ -5157,19 +5157,19 @@
         <v>403572</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>374554</v>
+        <v>374865</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>436516</v>
+        <v>436857</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3910649847817239</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3629459364417841</v>
+        <v>0.3632479141811134</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4229876113176744</v>
+        <v>0.4233181809406992</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>930</v>
@@ -5178,19 +5178,19 @@
         <v>979054</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>931823</v>
+        <v>927810</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1031158</v>
+        <v>1029855</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3998883745881557</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3805971297701626</v>
+        <v>0.3789580748812174</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4211700538993502</v>
+        <v>0.4206379031531454</v>
       </c>
     </row>
     <row r="33">
